--- a/04 上线/文档交付/文档清单.xlsx
+++ b/04 上线/文档交付/文档清单.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,70 +19,74 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+  <si>
+    <t>亿达未来</t>
+  </si>
+  <si>
+    <t>《系统测试方案》</t>
+  </si>
+  <si>
+    <t>《系统测试报告》</t>
+  </si>
+  <si>
+    <t>《配置开发方案》</t>
+  </si>
+  <si>
+    <t>《数据补录方案》</t>
+  </si>
+  <si>
+    <t>《用户操作手册》</t>
+  </si>
+  <si>
+    <t>《管理员操作手册》</t>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>《项目实施方案》</t>
-  </si>
-  <si>
-    <t>亿达未来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>《需求规格说明书》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>《系统实施方案》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>《开发方案》</t>
-  </si>
-  <si>
-    <t>《系统测试方案》</t>
-  </si>
-  <si>
-    <t>《系统测试报告》</t>
-  </si>
-  <si>
-    <t>《配置开发方案》</t>
-  </si>
-  <si>
-    <t>《数据补录方案》</t>
-  </si>
-  <si>
-    <t>《用户操作手册》</t>
-  </si>
-  <si>
-    <t>《管理员操作手册》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>《系统上线申请》</t>
-  </si>
-  <si>
-    <t>《系统推广方案》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>《系统运行维护方案》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>《项目验收报告》</t>
-  </si>
-  <si>
-    <t>负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵磊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,17 +110,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -124,8 +128,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,7 +140,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -145,10 +149,44 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -156,21 +194,27 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -520,229 +564,215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E15"/>
+  <dimension ref="B1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="2"/>
     <col min="2" max="2" width="4.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.08203125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="2"/>
+    <col min="5" max="5" width="6.9140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" s="2" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="4">
+    </row>
+    <row r="3" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
+    <row r="4" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
         <v>1</v>
       </c>
-      <c r="E3" s="4">
+    </row>
+    <row r="13" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
+    <row r="14" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6">
         <v>13</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="C14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
         <v>1</v>
       </c>
     </row>
